--- a/Results/Notebook 2 Example 2/Scores/problem_2_scores.xlsx
+++ b/Results/Notebook 2 Example 2/Scores/problem_2_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,12 +459,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>0.023±0.004</t>
+          <t>0.018±0.001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.178±0.004</t>
+          <t>0.213±0.003</t>
         </is>
       </c>
     </row>
@@ -476,12 +476,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>0.070±0.014</t>
+          <t>0.063±0.004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.247±0.009</t>
+          <t>0.232±0.014</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>0.891±0.027</t>
+          <t>0.872±0.003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.455±0.029</t>
+          <t>0.494±0.043</t>
         </is>
       </c>
     </row>
@@ -510,12 +510,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>0.991±0.005</t>
+          <t>0.993±0.000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.416±0.038</t>
+          <t>0.436±0.038</t>
         </is>
       </c>
     </row>
@@ -527,12 +527,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>0.989±0.004</t>
+          <t>0.979±0.006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.802±0.015</t>
+          <t>0.794±0.020</t>
         </is>
       </c>
     </row>
@@ -544,12 +544,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>0.964±0.017</t>
+          <t>0.949±0.003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.323±0.024</t>
+          <t>0.339±0.030</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>0.008±0.002</t>
+          <t>0.009±0.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.175±0.010</t>
+          <t>0.182±0.008</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>0.188±0.042</t>
+          <t>0.162±0.030</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.234±0.060</t>
+          <t>0.226±0.019</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>0.543±0.151</t>
+          <t>0.664±0.040</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.344±0.106</t>
+          <t>0.391±0.030</t>
         </is>
       </c>
     </row>
